--- a/data/142/NAV/2. Registered unemployed. Numbe_historical.xlsx
+++ b/data/142/NAV/2. Registered unemployed. Numbe_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AGS2"/>
+  <dimension ref="A1:AHE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4747,6 +4747,66 @@
           <t>2021-12</t>
         </is>
       </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7382,6 +7442,24 @@
       <c r="AGS2" t="n">
         <v>61036</v>
       </c>
+      <c r="AGT2" t="n">
+        <v>74143</v>
+      </c>
+      <c r="AGU2" t="n">
+        <v>64439</v>
+      </c>
+      <c r="AGV2" t="n">
+        <v>58368</v>
+      </c>
+      <c r="AGW2" t="inlineStr"/>
+      <c r="AGX2" t="inlineStr"/>
+      <c r="AGY2" t="inlineStr"/>
+      <c r="AGZ2" t="inlineStr"/>
+      <c r="AHA2" t="inlineStr"/>
+      <c r="AHB2" t="inlineStr"/>
+      <c r="AHC2" t="inlineStr"/>
+      <c r="AHD2" t="inlineStr"/>
+      <c r="AHE2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
